--- a/Table2.xlsx
+++ b/Table2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC97A3-82FF-4585-9543-3E4C86C5AF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="212">
   <si>
     <t>Ведомость остатков ОС, НМА, НПА</t>
   </si>
@@ -655,7 +656,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]\-0.00"/>
@@ -806,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -877,7 +878,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -889,27 +908,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,6 +1003,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1040,6 +1055,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1215,11 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,185 +1348,185 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="26" t="s">
+      <c r="A4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
     </row>
     <row r="9" spans="1:25" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="21" t="s">
         <v>16</v>
       </c>
@@ -1513,35 +1545,35 @@
       <c r="T9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
     </row>
     <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="3">
         <v>573411587.44000006</v>
       </c>
@@ -1594,28 +1626,28 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
       <c r="U12" s="9">
         <v>573411587.44000006</v>
       </c>
@@ -1631,28 +1663,28 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
       <c r="U13" s="12">
         <v>117461852.95999999</v>
       </c>
@@ -1668,28 +1700,28 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="12">
         <v>117461852.95999999</v>
       </c>
@@ -1705,30 +1737,30 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="36"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="20" t="s">
         <v>31</v>
       </c>
@@ -1762,30 +1794,30 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="36"/>
+      <c r="N16" s="27"/>
       <c r="O16" s="20" t="s">
         <v>31</v>
       </c>
@@ -1819,28 +1851,28 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
       <c r="U17" s="12">
         <v>51112574.090000004</v>
       </c>
@@ -1856,28 +1888,28 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
       <c r="U18" s="12">
         <v>51112574.090000004</v>
       </c>
@@ -1893,30 +1925,30 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N19" s="36"/>
+      <c r="N19" s="27"/>
       <c r="O19" s="20" t="s">
         <v>31</v>
       </c>
@@ -1950,28 +1982,28 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="12">
         <v>2034657.64</v>
       </c>
@@ -1987,28 +2019,28 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
       <c r="U21" s="12">
         <v>2034657.64</v>
       </c>
@@ -2024,30 +2056,30 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36" t="s">
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="36"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="20" t="s">
         <v>31</v>
       </c>
@@ -2079,30 +2111,30 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36" t="s">
+      <c r="B23" s="28"/>
+      <c r="C23" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="36"/>
+      <c r="N23" s="27"/>
       <c r="O23" s="20" t="s">
         <v>31</v>
       </c>
@@ -2136,28 +2168,28 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
       <c r="U24" s="12">
         <v>13796370.76</v>
       </c>
@@ -2173,28 +2205,28 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
       <c r="U25" s="12">
         <v>2852370.76</v>
       </c>
@@ -2210,30 +2242,30 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36" t="s">
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="36"/>
+      <c r="N26" s="27"/>
       <c r="O26" s="20" t="s">
         <v>31</v>
       </c>
@@ -2267,28 +2299,28 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
       <c r="U27" s="12">
         <v>10944000</v>
       </c>
@@ -2304,30 +2336,30 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36" t="s">
+      <c r="L28" s="27"/>
+      <c r="M28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="36"/>
+      <c r="N28" s="27"/>
       <c r="O28" s="20" t="s">
         <v>31</v>
       </c>
@@ -2361,28 +2393,28 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
       <c r="U29" s="12">
         <v>3790938.24</v>
       </c>
@@ -2398,28 +2430,28 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
       <c r="U30" s="12">
         <v>3790938.24</v>
       </c>
@@ -2435,30 +2467,30 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="36" t="s">
+      <c r="K31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36" t="s">
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="36"/>
+      <c r="N31" s="27"/>
       <c r="O31" s="20" t="s">
         <v>31</v>
       </c>
@@ -2492,28 +2524,28 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
       <c r="U32" s="12">
         <v>5904586.7999999998</v>
       </c>
@@ -2529,28 +2561,28 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
       <c r="U33" s="12">
         <v>5904586.7999999998</v>
       </c>
@@ -2566,30 +2598,30 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="K34" s="36" t="s">
+      <c r="K34" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36" t="s">
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="36"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="20" t="s">
         <v>31</v>
       </c>
@@ -2623,28 +2655,28 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
       <c r="U35" s="12">
         <v>2184192</v>
       </c>
@@ -2660,28 +2692,28 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="12">
         <v>2184192</v>
       </c>
@@ -2697,30 +2729,30 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36" t="s">
+      <c r="L37" s="27"/>
+      <c r="M37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="36"/>
+      <c r="N37" s="27"/>
       <c r="O37" s="20" t="s">
         <v>31</v>
       </c>
@@ -2754,28 +2786,28 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
       <c r="U38" s="12">
         <v>60349798.659999996</v>
       </c>
@@ -2791,28 +2823,28 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
       <c r="U39" s="12">
         <v>55061987.380000003</v>
       </c>
@@ -2828,30 +2860,30 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="36" t="s">
+      <c r="K40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N40" s="36"/>
+      <c r="N40" s="27"/>
       <c r="O40" s="20" t="s">
         <v>31</v>
       </c>
@@ -2885,28 +2917,28 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
       <c r="U41" s="12">
         <v>5287811.28</v>
       </c>
@@ -2922,30 +2954,30 @@
       </c>
     </row>
     <row r="42" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="28"/>
+      <c r="C42" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36" t="s">
+      <c r="L42" s="27"/>
+      <c r="M42" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="36"/>
+      <c r="N42" s="27"/>
       <c r="O42" s="20" t="s">
         <v>31</v>
       </c>
@@ -2979,28 +3011,28 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
       <c r="U43" s="12">
         <v>20605858.719999999</v>
       </c>
@@ -3016,28 +3048,28 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
       <c r="U44" s="12">
         <v>20605858.719999999</v>
       </c>
@@ -3053,30 +3085,30 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="35"/>
-      <c r="C45" s="36" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36" t="s">
+      <c r="L45" s="27"/>
+      <c r="M45" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N45" s="36"/>
+      <c r="N45" s="27"/>
       <c r="O45" s="20" t="s">
         <v>31</v>
       </c>
@@ -3110,30 +3142,30 @@
       </c>
     </row>
     <row r="46" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36" t="s">
+      <c r="L46" s="27"/>
+      <c r="M46" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N46" s="36"/>
+      <c r="N46" s="27"/>
       <c r="O46" s="20" t="s">
         <v>31</v>
       </c>
@@ -3167,28 +3199,28 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
       <c r="U47" s="12">
         <v>57174615</v>
       </c>
@@ -3204,28 +3236,28 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
       <c r="U48" s="12">
         <v>57174615</v>
       </c>
@@ -3241,30 +3273,30 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="K49" s="36" t="s">
+      <c r="K49" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36" t="s">
+      <c r="L49" s="27"/>
+      <c r="M49" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N49" s="36"/>
+      <c r="N49" s="27"/>
       <c r="O49" s="20" t="s">
         <v>31</v>
       </c>
@@ -3298,28 +3330,28 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
       <c r="U50" s="12">
         <v>20163730.899999999</v>
       </c>
@@ -3335,28 +3367,28 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
       <c r="U51" s="12">
         <v>20163730.899999999</v>
       </c>
@@ -3372,30 +3404,30 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="28"/>
+      <c r="C52" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
       <c r="J52" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K52" s="36" t="s">
+      <c r="K52" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36" t="s">
+      <c r="L52" s="27"/>
+      <c r="M52" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N52" s="36"/>
+      <c r="N52" s="27"/>
       <c r="O52" s="20" t="s">
         <v>31</v>
       </c>
@@ -3429,28 +3461,28 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
       <c r="U53" s="12">
         <v>30774873.920000002</v>
       </c>
@@ -3466,28 +3498,28 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
       <c r="U54" s="12">
         <v>17766627.260000002</v>
       </c>
@@ -3503,30 +3535,30 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="36" t="s">
+      <c r="B55" s="28"/>
+      <c r="C55" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36" t="s">
+      <c r="L55" s="27"/>
+      <c r="M55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="N55" s="36"/>
+      <c r="N55" s="27"/>
       <c r="O55" s="20" t="s">
         <v>31</v>
       </c>
@@ -3558,30 +3590,30 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36" t="s">
+      <c r="B56" s="28"/>
+      <c r="C56" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
       <c r="J56" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="K56" s="36" t="s">
+      <c r="K56" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36" t="s">
+      <c r="L56" s="27"/>
+      <c r="M56" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="36"/>
+      <c r="N56" s="27"/>
       <c r="O56" s="20" t="s">
         <v>31</v>
       </c>
@@ -3615,28 +3647,28 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="26"/>
       <c r="U57" s="12">
         <v>13008246.66</v>
       </c>
@@ -3652,30 +3684,30 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="36" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="K58" s="36" t="s">
+      <c r="K58" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36" t="s">
+      <c r="L58" s="27"/>
+      <c r="M58" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N58" s="36"/>
+      <c r="N58" s="27"/>
       <c r="O58" s="20" t="s">
         <v>31</v>
       </c>
@@ -3709,28 +3741,28 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
       <c r="U59" s="12">
         <v>26383600.050000001</v>
       </c>
@@ -3746,28 +3778,28 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
       <c r="U60" s="12">
         <v>26383600.050000001</v>
       </c>
@@ -3783,30 +3815,30 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="28"/>
+      <c r="C61" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="36" t="s">
+      <c r="K61" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36" t="s">
+      <c r="L61" s="27"/>
+      <c r="M61" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N61" s="36"/>
+      <c r="N61" s="27"/>
       <c r="O61" s="20" t="s">
         <v>31</v>
       </c>
@@ -3840,30 +3872,30 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
       <c r="J62" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="K62" s="36" t="s">
+      <c r="K62" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36" t="s">
+      <c r="L62" s="27"/>
+      <c r="M62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N62" s="36"/>
+      <c r="N62" s="27"/>
       <c r="O62" s="20" t="s">
         <v>31</v>
       </c>
@@ -3897,28 +3929,28 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+      <c r="A63" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34"/>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
       <c r="U63" s="12">
         <v>22036856</v>
       </c>
@@ -3934,28 +3966,28 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="26"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="26"/>
+      <c r="T64" s="26"/>
       <c r="U64" s="12">
         <v>22036856</v>
       </c>
@@ -3971,30 +4003,30 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36" t="s">
+      <c r="B65" s="28"/>
+      <c r="C65" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="K65" s="36" t="s">
+      <c r="K65" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36" t="s">
+      <c r="L65" s="27"/>
+      <c r="M65" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N65" s="36"/>
+      <c r="N65" s="27"/>
       <c r="O65" s="20" t="s">
         <v>31</v>
       </c>
@@ -4028,28 +4060,28 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+      <c r="A66" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
       <c r="U66" s="12">
         <v>1995634.8</v>
       </c>
@@ -4065,28 +4097,28 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
       <c r="U67" s="12">
         <v>1995634.8</v>
       </c>
@@ -4102,30 +4134,30 @@
       </c>
     </row>
     <row r="68" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36" t="s">
+      <c r="B68" s="28"/>
+      <c r="C68" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
       <c r="J68" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="K68" s="36" t="s">
+      <c r="K68" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36" t="s">
+      <c r="L68" s="27"/>
+      <c r="M68" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N68" s="36"/>
+      <c r="N68" s="27"/>
       <c r="O68" s="20" t="s">
         <v>31</v>
       </c>
@@ -4159,28 +4191,28 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="34"/>
-      <c r="O69" s="34"/>
-      <c r="P69" s="34"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
       <c r="U69" s="12">
         <v>26476925.399999999</v>
       </c>
@@ -4196,28 +4228,28 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="26"/>
+      <c r="R70" s="26"/>
+      <c r="S70" s="26"/>
+      <c r="T70" s="26"/>
       <c r="U70" s="12">
         <v>26476925.399999999</v>
       </c>
@@ -4233,30 +4265,30 @@
       </c>
     </row>
     <row r="71" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36" t="s">
+      <c r="B71" s="28"/>
+      <c r="C71" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
       <c r="J71" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="K71" s="36" t="s">
+      <c r="K71" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36" t="s">
+      <c r="L71" s="27"/>
+      <c r="M71" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N71" s="36"/>
+      <c r="N71" s="27"/>
       <c r="O71" s="20" t="s">
         <v>31</v>
       </c>
@@ -4290,28 +4322,28 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
       <c r="U72" s="12">
         <v>111164521.5</v>
       </c>
@@ -4327,28 +4359,28 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
       <c r="U73" s="12">
         <v>111164521.5</v>
       </c>
@@ -4364,30 +4396,30 @@
       </c>
     </row>
     <row r="74" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="28"/>
+      <c r="C74" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
       <c r="J74" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K74" s="36" t="s">
+      <c r="K74" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36" t="s">
+      <c r="L74" s="27"/>
+      <c r="M74" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N74" s="36"/>
+      <c r="N74" s="27"/>
       <c r="O74" s="20" t="s">
         <v>31</v>
       </c>
@@ -4421,28 +4453,28 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="29"/>
+      <c r="O75" s="29"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
       <c r="U75" s="3">
         <v>3117250.25</v>
       </c>
@@ -4495,28 +4527,28 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
       <c r="U77" s="9">
         <v>3117250.25</v>
       </c>
@@ -4532,28 +4564,28 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
+      <c r="A78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="34"/>
-      <c r="O78" s="34"/>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
       <c r="U78" s="12">
         <v>1644786.32</v>
       </c>
@@ -4569,28 +4601,28 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
       <c r="U79" s="12">
         <v>1644786.32</v>
       </c>
@@ -4606,30 +4638,30 @@
       </c>
     </row>
     <row r="80" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="36" t="s">
+      <c r="B80" s="28"/>
+      <c r="C80" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="36"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
       <c r="J80" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="K80" s="36" t="s">
+      <c r="K80" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L80" s="36"/>
-      <c r="M80" s="36" t="s">
+      <c r="L80" s="27"/>
+      <c r="M80" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N80" s="36"/>
+      <c r="N80" s="27"/>
       <c r="O80" s="20" t="s">
         <v>31</v>
       </c>
@@ -4661,28 +4693,28 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="34"/>
-      <c r="O81" s="34"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
       <c r="U81" s="12">
         <v>403943.64</v>
       </c>
@@ -4698,28 +4730,28 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="32"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="32"/>
-      <c r="P82" s="32"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="32"/>
-      <c r="T82" s="32"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
       <c r="U82" s="12">
         <v>403943.64</v>
       </c>
@@ -4735,30 +4767,30 @@
       </c>
     </row>
     <row r="83" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="36" t="s">
+      <c r="B83" s="28"/>
+      <c r="C83" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
       <c r="J83" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="K83" s="36" t="s">
+      <c r="K83" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="L83" s="36"/>
-      <c r="M83" s="36" t="s">
+      <c r="L83" s="27"/>
+      <c r="M83" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N83" s="36"/>
+      <c r="N83" s="27"/>
       <c r="O83" s="20" t="s">
         <v>31</v>
       </c>
@@ -4792,28 +4824,28 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
       <c r="U84" s="12">
         <v>42789.9</v>
       </c>
@@ -4829,28 +4861,28 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="32"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="32"/>
-      <c r="N85" s="32"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="32"/>
-      <c r="Q85" s="32"/>
-      <c r="R85" s="32"/>
-      <c r="S85" s="32"/>
-      <c r="T85" s="32"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
       <c r="U85" s="12">
         <v>42789.9</v>
       </c>
@@ -4866,30 +4898,30 @@
       </c>
     </row>
     <row r="86" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="36"/>
-      <c r="E86" s="36"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
       <c r="J86" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="K86" s="36" t="s">
+      <c r="K86" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="L86" s="36"/>
-      <c r="M86" s="36" t="s">
+      <c r="L86" s="27"/>
+      <c r="M86" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="N86" s="36"/>
+      <c r="N86" s="27"/>
       <c r="O86" s="20" t="s">
         <v>31</v>
       </c>
@@ -4923,28 +4955,28 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
       <c r="U87" s="12">
         <v>495253.22</v>
       </c>
@@ -4960,28 +4992,28 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+      <c r="T88" s="26"/>
       <c r="U88" s="12">
         <v>348978.22</v>
       </c>
@@ -4997,30 +5029,30 @@
       </c>
     </row>
     <row r="89" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="35"/>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="28"/>
+      <c r="C89" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
       <c r="J89" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="K89" s="36" t="s">
+      <c r="K89" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36" t="s">
+      <c r="L89" s="27"/>
+      <c r="M89" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N89" s="36"/>
+      <c r="N89" s="27"/>
       <c r="O89" s="20" t="s">
         <v>180</v>
       </c>
@@ -5054,30 +5086,30 @@
       </c>
     </row>
     <row r="90" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="36" t="s">
+      <c r="B90" s="28"/>
+      <c r="C90" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
       <c r="J90" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="K90" s="36" t="s">
+      <c r="K90" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L90" s="36"/>
-      <c r="M90" s="36" t="s">
+      <c r="L90" s="27"/>
+      <c r="M90" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N90" s="36"/>
+      <c r="N90" s="27"/>
       <c r="O90" s="20" t="s">
         <v>31</v>
       </c>
@@ -5111,30 +5143,30 @@
       </c>
     </row>
     <row r="91" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="36" t="s">
+      <c r="B91" s="28"/>
+      <c r="C91" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="K91" s="36" t="s">
+      <c r="K91" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L91" s="36"/>
-      <c r="M91" s="36" t="s">
+      <c r="L91" s="27"/>
+      <c r="M91" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N91" s="36"/>
+      <c r="N91" s="27"/>
       <c r="O91" s="20" t="s">
         <v>31</v>
       </c>
@@ -5168,30 +5200,30 @@
       </c>
     </row>
     <row r="92" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="36" t="s">
+      <c r="B92" s="28"/>
+      <c r="C92" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
       <c r="J92" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="K92" s="36" t="s">
+      <c r="K92" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36" t="s">
+      <c r="L92" s="27"/>
+      <c r="M92" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N92" s="36"/>
+      <c r="N92" s="27"/>
       <c r="O92" s="20" t="s">
         <v>180</v>
       </c>
@@ -5225,30 +5257,30 @@
       </c>
     </row>
     <row r="93" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="36" t="s">
+      <c r="B93" s="28"/>
+      <c r="C93" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="36"/>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
       <c r="J93" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="K93" s="36" t="s">
+      <c r="K93" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36" t="s">
+      <c r="L93" s="27"/>
+      <c r="M93" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N93" s="36"/>
+      <c r="N93" s="27"/>
       <c r="O93" s="20" t="s">
         <v>31</v>
       </c>
@@ -5280,30 +5312,30 @@
       </c>
     </row>
     <row r="94" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="35"/>
-      <c r="C94" s="36" t="s">
+      <c r="B94" s="28"/>
+      <c r="C94" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
       <c r="J94" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K94" s="36" t="s">
+      <c r="K94" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36" t="s">
+      <c r="L94" s="27"/>
+      <c r="M94" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N94" s="36"/>
+      <c r="N94" s="27"/>
       <c r="O94" s="20" t="s">
         <v>31</v>
       </c>
@@ -5337,28 +5369,28 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
+      <c r="A95" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
-      <c r="S95" s="32"/>
-      <c r="T95" s="32"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="26"/>
       <c r="U95" s="12">
         <v>146275</v>
       </c>
@@ -5374,30 +5406,30 @@
       </c>
     </row>
     <row r="96" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="36" t="s">
+      <c r="B96" s="28"/>
+      <c r="C96" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
       <c r="J96" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="K96" s="36" t="s">
+      <c r="K96" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36" t="s">
+      <c r="L96" s="27"/>
+      <c r="M96" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="N96" s="36"/>
+      <c r="N96" s="27"/>
       <c r="O96" s="20" t="s">
         <v>31</v>
       </c>
@@ -5429,30 +5461,30 @@
       </c>
     </row>
     <row r="97" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="36" t="s">
+      <c r="B97" s="28"/>
+      <c r="C97" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
       <c r="J97" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="K97" s="36" t="s">
+      <c r="K97" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36" t="s">
+      <c r="L97" s="27"/>
+      <c r="M97" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="N97" s="36"/>
+      <c r="N97" s="27"/>
       <c r="O97" s="20" t="s">
         <v>31</v>
       </c>
@@ -5486,28 +5518,28 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="34" t="s">
+      <c r="A98" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="34"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
       <c r="U98" s="12">
         <v>345427.5</v>
       </c>
@@ -5523,28 +5555,28 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
+      <c r="A99" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="32"/>
-      <c r="M99" s="32"/>
-      <c r="N99" s="32"/>
-      <c r="O99" s="32"/>
-      <c r="P99" s="32"/>
-      <c r="Q99" s="32"/>
-      <c r="R99" s="32"/>
-      <c r="S99" s="32"/>
-      <c r="T99" s="32"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26"/>
       <c r="U99" s="12">
         <v>345427.5</v>
       </c>
@@ -5560,30 +5592,30 @@
       </c>
     </row>
     <row r="100" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="36" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
       <c r="J100" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="K100" s="36" t="s">
+      <c r="K100" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36" t="s">
+      <c r="L100" s="27"/>
+      <c r="M100" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N100" s="36"/>
+      <c r="N100" s="27"/>
       <c r="O100" s="20" t="s">
         <v>31</v>
       </c>
@@ -5617,28 +5649,28 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
+      <c r="A101" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="34"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="34"/>
-      <c r="R101" s="34"/>
-      <c r="S101" s="34"/>
-      <c r="T101" s="34"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
       <c r="U101" s="12">
         <v>185049.67</v>
       </c>
@@ -5654,28 +5686,28 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="32"/>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
-      <c r="N102" s="32"/>
-      <c r="O102" s="32"/>
-      <c r="P102" s="32"/>
-      <c r="Q102" s="32"/>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
-      <c r="T102" s="32"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="26"/>
+      <c r="R102" s="26"/>
+      <c r="S102" s="26"/>
+      <c r="T102" s="26"/>
       <c r="U102" s="12">
         <v>185049.67</v>
       </c>
@@ -5691,26 +5723,28 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="20"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="17"/>
+      <c r="A103" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="29"/>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
+      <c r="Q103" s="29"/>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
       <c r="U103" s="12"/>
       <c r="V103" s="13"/>
       <c r="W103" s="12"/>
@@ -5727,31 +5761,188 @@
       <c r="A106" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="A101:T101"/>
-    <mergeCell ref="A102:T102"/>
-    <mergeCell ref="C103:I103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="A98:T98"/>
-    <mergeCell ref="A99:T99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:I96"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:I94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="A95:T95"/>
+  <mergeCells count="219">
+    <mergeCell ref="X4:X9"/>
+    <mergeCell ref="Y4:Y9"/>
+    <mergeCell ref="A5:T5"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A11:T11"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="U4:U9"/>
+    <mergeCell ref="V4:V9"/>
+    <mergeCell ref="W4:W9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A18:T18"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A13:T13"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="A25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A30:T30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A35:T35"/>
+    <mergeCell ref="A36:T36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A32:T32"/>
+    <mergeCell ref="A33:T33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="A41:T41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="A38:T38"/>
+    <mergeCell ref="A39:T39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="A47:T47"/>
+    <mergeCell ref="A43:T43"/>
+    <mergeCell ref="A44:T44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="A50:T50"/>
+    <mergeCell ref="A51:T51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="A48:T48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="A57:T57"/>
+    <mergeCell ref="A53:T53"/>
+    <mergeCell ref="A54:T54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="A60:T60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:I61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="A59:T59"/>
+    <mergeCell ref="A64:T64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A63:T63"/>
+    <mergeCell ref="A69:T69"/>
+    <mergeCell ref="A70:T70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:I71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A66:T66"/>
+    <mergeCell ref="A67:T67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="A75:T75"/>
+    <mergeCell ref="A76:T76"/>
+    <mergeCell ref="A77:T77"/>
+    <mergeCell ref="A78:T78"/>
+    <mergeCell ref="A79:T79"/>
+    <mergeCell ref="A72:T72"/>
+    <mergeCell ref="A73:T73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="A82:T82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:I80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="A81:T81"/>
+    <mergeCell ref="A87:T87"/>
+    <mergeCell ref="A88:T88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="A84:T84"/>
+    <mergeCell ref="A85:T85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="M86:N86"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C92:I92"/>
     <mergeCell ref="K92:L92"/>
@@ -5768,187 +5959,28 @@
     <mergeCell ref="C91:I91"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:N91"/>
-    <mergeCell ref="A87:T87"/>
-    <mergeCell ref="A88:T88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="A84:T84"/>
-    <mergeCell ref="A85:T85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="A82:T82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:I80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="A81:T81"/>
-    <mergeCell ref="A75:T75"/>
-    <mergeCell ref="A76:T76"/>
-    <mergeCell ref="A77:T77"/>
-    <mergeCell ref="A78:T78"/>
-    <mergeCell ref="A79:T79"/>
-    <mergeCell ref="A72:T72"/>
-    <mergeCell ref="A73:T73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:I74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="A69:T69"/>
-    <mergeCell ref="A70:T70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:I71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A66:T66"/>
-    <mergeCell ref="A67:T67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="A64:T64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A63:T63"/>
-    <mergeCell ref="A60:T60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:I61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="A59:T59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="A57:T57"/>
-    <mergeCell ref="A53:T53"/>
-    <mergeCell ref="A54:T54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="A50:T50"/>
-    <mergeCell ref="A51:T51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="A48:T48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="A47:T47"/>
-    <mergeCell ref="A43:T43"/>
-    <mergeCell ref="A44:T44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="A41:T41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="A38:T38"/>
-    <mergeCell ref="A39:T39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="A36:T36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A32:T32"/>
-    <mergeCell ref="A33:T33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A29:T29"/>
-    <mergeCell ref="A30:T30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="A25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="A18:T18"/>
-    <mergeCell ref="A12:T12"/>
-    <mergeCell ref="A13:T13"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="X4:X9"/>
-    <mergeCell ref="Y4:Y9"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A11:T11"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="U4:U9"/>
-    <mergeCell ref="V4:V9"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:I96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:I94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="A95:T95"/>
+    <mergeCell ref="A101:T101"/>
+    <mergeCell ref="A102:T102"/>
+    <mergeCell ref="A98:T98"/>
+    <mergeCell ref="A99:T99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="A103:T103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
